--- a/biology/Botanique/Abelmoschus_manihot/Abelmoschus_manihot.xlsx
+++ b/biology/Botanique/Abelmoschus_manihot/Abelmoschus_manihot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aibika
 L'Aibika, Abelmoschus manihot, est une espèce de plantes à fleurs de la famille des Malvaceae, originaire du sud de la Chine, du Népal et de l'Inde. 
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hibiscus manihot L.</t>
         </is>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée annuelle ou pérenne, haute de 1 ou 2 mètres aux grandes fleurs jaune pâle, se caractérise par son caryotype qui comporte 68 chromosomes[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée annuelle ou pérenne, haute de 1 ou 2 mètres aux grandes fleurs jaune pâle, se caractérise par son caryotype qui comporte 68 chromosomes
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles, les jeunes pousses et les boutons floraux, doux et mucilagineux, sont comestibles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles, les jeunes pousses et les boutons floraux, doux et mucilagineux, sont comestibles.
 La plante est également cultivée pour ses qualités ornementales.
 Ses racines sont utilisées au Japon pour la fabrication traditionnelle du papier. Ajoutées à la pâte à papier, elles servent d'agent dispersant (voir la procédure de fabrication du papier avec Broussonetia papyrifera, le mûrier à papier).
 </t>
